--- a/Planung/Gantt-DiagrammUgur.xlsx
+++ b/Planung/Gantt-DiagrammUgur.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE79B5-08B0-4FBD-A14F-049E4A2BD28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0AEE79B5-08B0-4FBD-A14F-049E4A2BD28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D9C6769-8320-4493-BF46-8A88FFA4BBE7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -168,15 +168,9 @@
     <t>Überarbeiten</t>
   </si>
   <si>
-    <t>Acimovic</t>
-  </si>
-  <si>
     <t>Streuli</t>
   </si>
   <si>
-    <t>Girolimetto</t>
-  </si>
-  <si>
     <t>Kontrollieren/Ausweten</t>
   </si>
   <si>
@@ -259,6 +253,9 @@
   </si>
   <si>
     <t>4..1.23</t>
+  </si>
+  <si>
+    <t>Streuli / Deniz</t>
   </si>
 </sst>
 </file>
@@ -1277,26 +1274,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="18" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="18" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1954,31 +1951,31 @@
   </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="53" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH31" sqref="AH31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="54" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="29" width="2.54296875" customWidth="1"/>
-    <col min="32" max="33" width="10.26953125"/>
+    <col min="1" max="1" width="2.734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.3671875" customWidth="1"/>
+    <col min="3" max="3" width="30.734375" customWidth="1"/>
+    <col min="4" max="4" width="10.734375" customWidth="1"/>
+    <col min="5" max="5" width="10.47265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.47265625" customWidth="1"/>
+    <col min="7" max="7" width="2.734375" customWidth="1"/>
+    <col min="8" max="8" width="6.15625" hidden="1" customWidth="1"/>
+    <col min="9" max="29" width="2.5234375" customWidth="1"/>
+    <col min="32" max="33" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1989,41 +1986,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83">
+      <c r="D3" s="84"/>
+      <c r="E3" s="78">
         <v>44929</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="79"/>
     </row>
-    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="1.85">
       <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="7">
         <v>0.01</v>
       </c>
@@ -2059,7 +2056,7 @@
       <c r="AC4" s="82"/>
       <c r="AD4" s="77"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>44941.07</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -2294,7 +2291,7 @@
       <c r="AB7" s="31"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -2332,12 +2329,12 @@
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>28</v>
@@ -2379,10 +2376,10 @@
       <c r="AB9" s="31"/>
       <c r="AC9" s="31"/>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="36"/>
       <c r="B10" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>28</v>
@@ -2420,15 +2417,15 @@
       <c r="AB10" s="31"/>
       <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -2466,12 +2463,12 @@
       <c r="AB11" s="31"/>
       <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="19"/>
@@ -2504,10 +2501,10 @@
       <c r="AB12" s="31"/>
       <c r="AC12" s="31"/>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="36"/>
       <c r="B13" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>28</v>
@@ -2548,13 +2545,13 @@
       <c r="AB13" s="31"/>
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="35"/>
       <c r="B14" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20">
         <v>0.8</v>
@@ -2592,13 +2589,13 @@
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="35"/>
       <c r="B15" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="20">
         <v>0.8</v>
@@ -2633,13 +2630,13 @@
       <c r="AB15" s="31"/>
       <c r="AC15" s="31"/>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="35"/>
       <c r="B16" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D16" s="20">
         <v>0.9</v>
@@ -2674,19 +2671,19 @@
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="35"/>
       <c r="B17" s="52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="20">
         <v>0.9</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="64">
         <v>44930</v>
@@ -2718,7 +2715,7 @@
       <c r="AB17" s="31"/>
       <c r="AC17" s="31"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
@@ -2756,13 +2753,13 @@
       <c r="AB18" s="31"/>
       <c r="AC18" s="31"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="35"/>
       <c r="B19" s="53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -2800,10 +2797,10 @@
       <c r="AB19" s="31"/>
       <c r="AC19" s="31"/>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35"/>
       <c r="B20" s="53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>28</v>
@@ -2841,22 +2838,22 @@
       <c r="AB20" s="31"/>
       <c r="AC20" s="31"/>
     </row>
-    <row r="21" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="35"/>
       <c r="B21" s="53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14" t="e">
@@ -2885,13 +2882,13 @@
       <c r="AB21" s="31"/>
       <c r="AC21" s="31"/>
     </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="35"/>
       <c r="B22" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="23">
         <v>0.9</v>
@@ -2926,13 +2923,13 @@
       <c r="AB22" s="31"/>
       <c r="AC22" s="31"/>
     </row>
-    <row r="23" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="35"/>
       <c r="B23" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="23">
         <v>0.9</v>
@@ -2970,13 +2967,13 @@
       <c r="AB23" s="31"/>
       <c r="AC23" s="31"/>
     </row>
-    <row r="24" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="35"/>
       <c r="B24" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -3011,7 +3008,7 @@
       <c r="AB24" s="31"/>
       <c r="AC24" s="31"/>
     </row>
-    <row r="25" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="35"/>
       <c r="B25" s="53" t="s">
         <v>30</v>
@@ -3055,12 +3052,12 @@
       <c r="AB25" s="31"/>
       <c r="AC25" s="31"/>
     </row>
-    <row r="26" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="25"/>
@@ -3093,7 +3090,7 @@
       <c r="AB26" s="31"/>
       <c r="AC26" s="31"/>
     </row>
-    <row r="27" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="35"/>
       <c r="B27" s="54" t="s">
         <v>27</v>
@@ -3135,10 +3132,10 @@
       <c r="AB27" s="31"/>
       <c r="AC27" s="31"/>
     </row>
-    <row r="28" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="35"/>
       <c r="B28" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>28</v>
@@ -3177,13 +3174,13 @@
       <c r="AB28" s="31"/>
       <c r="AC28" s="31"/>
     </row>
-    <row r="29" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="35"/>
       <c r="B29" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="70">
@@ -3219,10 +3216,10 @@
       <c r="AB29" s="31"/>
       <c r="AC29" s="31"/>
     </row>
-    <row r="30" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="35"/>
       <c r="B30" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>28</v>
@@ -3258,10 +3255,10 @@
       <c r="AB30" s="31"/>
       <c r="AC30" s="31"/>
     </row>
-    <row r="31" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="35"/>
       <c r="B31" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>28</v>
@@ -3300,7 +3297,7 @@
       <c r="AB31" s="31"/>
       <c r="AC31" s="31"/>
     </row>
-    <row r="32" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="35" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +3333,7 @@
       <c r="AB32" s="31"/>
       <c r="AC32" s="31"/>
     </row>
-    <row r="33" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="36" t="s">
         <v>13</v>
       </c>
@@ -3374,14 +3371,14 @@
       <c r="AB33" s="33"/>
       <c r="AC33" s="33"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="11"/>
       <c r="F35" s="37"/>
     </row>
-    <row r="36" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="12"/>
     </row>
   </sheetData>
@@ -3474,6 +3471,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3761,36 +3787,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3809,24 +3826,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>